--- a/1_Measurement_and_Uncertainty/Embedded_Qs/1_a_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/1_a_Embedded_Qs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BD9313-8CC5-44DF-A1C9-82FE8E1D3157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="9"/>
+    <workbookView xWindow="12630" yWindow="480" windowWidth="16020" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -34,23 +35,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
   <si>
     <t>Correct</t>
   </si>
@@ -223,144 +213,6 @@
     <t>Depends on your gender identity</t>
   </si>
   <si>
-    <t>Try to quantify the error using a standard process</t>
-  </si>
-  <si>
-    <t>Start the experiment over again</t>
-  </si>
-  <si>
-    <t>Think through your experiment to make sure there are no extraneous variables</t>
-  </si>
-  <si>
-    <t>Consider taking more data to minimize the random error</t>
-  </si>
-  <si>
-    <t>If you have error in your experiment, what should you do?  Submit all that are true</t>
-  </si>
-  <si>
-    <t>This process is called uncertainty calculation, and allows us to describe how accurate a set of data is by using numbers</t>
-  </si>
-  <si>
-    <t>Usually not necessary: every experiment has error.</t>
-  </si>
-  <si>
-    <t>This is always a good idea: is there some variable you are not accounting for?</t>
-  </si>
-  <si>
-    <t>More data points generally means that the effects of random variation are minimized.</t>
-  </si>
-  <si>
-    <t>2. Determine how many 1% errors are in 12,000</t>
-  </si>
-  <si>
-    <t>Consider this situation.  You are measuring the volume of hydrogen in Hindenburg.  Your calculations give you the answer: V = 202,000 +- 12,000 m3.   Without using a calculator, estimate the percent error (answer in percent values: so for a 12% error, answer 12)</t>
-  </si>
-  <si>
-    <t>You find that diameter of the airship is d = 41.0 +- 3.1 m.  Without using a calculator, estimate the percent error.</t>
-  </si>
-  <si>
-    <t>2. How much of that 10% is the actually error?</t>
-  </si>
-  <si>
-    <t>1.  Here you might consider: what would 10% error be?  Round that value off.</t>
-  </si>
-  <si>
-    <t>1. Consider how much error would be 1% of 202,000, then round that value off.</t>
-  </si>
-  <si>
-    <t>Smaller than 3.1 m</t>
-  </si>
-  <si>
-    <t>3.1 m</t>
-  </si>
-  <si>
-    <t>Larger than 3.1 m</t>
-  </si>
-  <si>
-    <t>If I want to be more sure that the true value lies in the uncertainty range, I need to make that range larger.</t>
-  </si>
-  <si>
-    <t>Smaller than 68%</t>
-  </si>
-  <si>
-    <t>Larger than 68%</t>
-  </si>
-  <si>
-    <t>If the range defined by my uncertainty is smaller than it was, I will be less confident that the true value lies in that range.   Compare this to throwing a dart: if my target area becomes smaller, I'll be less confident that the dart will hit the target.</t>
-  </si>
-  <si>
-    <t>0.05 m</t>
-  </si>
-  <si>
-    <t>0.005 m</t>
-  </si>
-  <si>
-    <t>0.01 m</t>
-  </si>
-  <si>
-    <t>0.1 m</t>
-  </si>
-  <si>
-    <t>0.5 m</t>
-  </si>
-  <si>
-    <t>41.1 m suggests that the true value lies between 40.05 and 40.15 m, so the uncertainty is 0.05 m.</t>
-  </si>
-  <si>
-    <t>There are the wrong number of digits in the uncertainty</t>
-  </si>
-  <si>
-    <t>The uncertainty value could not possibly be that low</t>
-  </si>
-  <si>
-    <t>The value and the uncertainty do not have the same smallest digit</t>
-  </si>
-  <si>
-    <t>The value is not accurate enough to be usable</t>
-  </si>
-  <si>
-    <t>Your uncertainty value should have 2 significant digits.</t>
-  </si>
-  <si>
-    <t>This would be determined by the data</t>
-  </si>
-  <si>
-    <t>They should always have the same smallest digit: your value cannot be more accurate than your uncertainty, and vice versa.</t>
-  </si>
-  <si>
-    <t>The time required to fully ignite the hydrogen in the airship is estimated at 0.034 s, and the temperature at 1210 degrees C.  How many significant digits do these values have, respectively?</t>
-  </si>
-  <si>
-    <t>2 and 3</t>
-  </si>
-  <si>
-    <t>2 and 4</t>
-  </si>
-  <si>
-    <t>3 and 3</t>
-  </si>
-  <si>
-    <t>3 and 4</t>
-  </si>
-  <si>
-    <t>This is a bit of a trick question: 0.034 definitely has 2 sigfigs (the zero before the numbers does not count), but the number of sigfigs in 1210 is unclear (could be 3 or 4).  This is one reason engineers use scientific notation (1.21 * 10^3 definitely has 3 sigfigs, while 1.210 * 10^3 has 4).</t>
-  </si>
-  <si>
-    <t>You've determined that the diameter was 41.0 +- 3.1 m at 68% level of confidence.  If you want a 95% level of confidence, what will the uncertainty be?</t>
-  </si>
-  <si>
-    <t>You've determined that the volume is 202,000 +- 12,000 m3 at a 68% level of confidence.    If you set your uncertainty to 10,000 m, what will the level of confidence be?</t>
-  </si>
-  <si>
-    <t>Instead of using an uncertainty value, you write that the diameter of Hindenburg is 41.1 m.  What is the implied uncertainty?</t>
-  </si>
-  <si>
-    <t>You report that the speed of the Hindenburg as it was plummeting to earth was 21.2 +- 0.32 m/s.  What is wrong with this expression?  Submit all that are true.</t>
-  </si>
-  <si>
-    <t>2 and either 3 or 4</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -400,58 +252,100 @@
     <t>An internal standard is generally more stringent than a regulatory standard.</t>
   </si>
   <si>
-    <t>Interoperability</t>
-  </si>
-  <si>
-    <t>Match the desirable behavior/ outcome with justification for using standards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liability </t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>A customer reads that a package of cookies has 180 calories, and can dependably know that this package has fewer calories than the package that says 220 calories</t>
-  </si>
-  <si>
-    <t>Reputation/ public trust</t>
-  </si>
-  <si>
-    <t>A exit door explodes from an airplane, but you know when your team decided which bolts to use, they were following regulatory standards</t>
-  </si>
-  <si>
-    <t>A city hired a contractor to build a bridge, but didn't open the bridge when an inspector noticed that the beams used were not up to the standard</t>
-  </si>
-  <si>
-    <t>You bought an off-brand charger for your iPhone, but it worked without any problems</t>
-  </si>
-  <si>
-    <t>A customer bought your company's refrigerator, which met the stringent internal standard for noise production, and was pleased with how quiet it was</t>
-  </si>
-  <si>
-    <t>A brand can gain customer loyalty (and charge more) if customers have good experiences with their products.</t>
-  </si>
-  <si>
-    <t>Interoperability can be helpful to customers and manufacturers.</t>
-  </si>
-  <si>
-    <t>Enforcing standards can keep unsafe products out of the marketplace.</t>
-  </si>
-  <si>
-    <t>Standards can provide protection against lawsuits in the event of product failure.</t>
-  </si>
-  <si>
-    <t>Using the same processes to test and describe products makes it easier to compare those products.</t>
+    <t>The pointer</t>
+  </si>
+  <si>
+    <t>The printed temperature values on the display surface</t>
+  </si>
+  <si>
+    <t>The high expansion metal in the spiral</t>
+  </si>
+  <si>
+    <t>Both metals in the spiral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both metals in the spiral "sense" the temperature change, and respond by changing shape.   </t>
+  </si>
+  <si>
+    <t>A bimetallic thermometer has a pointer that turns to point at the correct temperature.  The pointer is turned because the two metals fused together in a spiral in the thermometer have different rates of expansion, as shown in the image.  What part of the thermometer would best be described as the "sensor" for this thermometer?</t>
+  </si>
+  <si>
+    <t>The length of the pointer</t>
+  </si>
+  <si>
+    <t>The angle that the pointer points</t>
+  </si>
+  <si>
+    <t>The temperature of the metal</t>
+  </si>
+  <si>
+    <t>The amount that the metal has expanded</t>
+  </si>
+  <si>
+    <t>A measurement instrument has to transduce the unknown quantity into a readable value.  What does the bimetallic thermometer shown in the image transduce temperature into?</t>
+  </si>
+  <si>
+    <t>The length of the metal band</t>
+  </si>
+  <si>
+    <t>All of the other answers are steps along the way has the thermometer changes a temperature to a readable value.  But ultimately what we are reading is the angle of the pointer: which direction is it pointing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the low expansion metal was kept the same, but the high expansion metal was replaced by a metal with an even larger coefficient of thermal expansion, what would happen to the sensitivity? </t>
+  </si>
+  <si>
+    <t>The sensitivity would go down</t>
+  </si>
+  <si>
+    <t>The sensitivity would go up</t>
+  </si>
+  <si>
+    <t>The sensitivity would stay the same</t>
+  </si>
+  <si>
+    <t>Remember that sensitivity is the ratio of the output to the input.  In this case, the same input (say a rise in temperature of 5 degrees) would cause a larger expansion of the "high expansion" metal, which would curve the spiral more, and which would cause the pointer to move a further distance.   So the output (the change in pointer angle) would be larger for the same input: a higher sensitivity.</t>
+  </si>
+  <si>
+    <t>The type of metal in the spiral</t>
+  </si>
+  <si>
+    <t>The location of the temperature markers</t>
+  </si>
+  <si>
+    <t>The spacing between the individual temperature markers</t>
+  </si>
+  <si>
+    <t>If you were calibrating a bimetallic thermometer using standardized inputs (maybe ice water and boiling water), what would you change to make the instrument correctly calibrated?  Mark all that are true</t>
+  </si>
+  <si>
+    <t>The scale for the temperature (Fahrenheit, Celsius, etc…)</t>
+  </si>
+  <si>
+    <t>This spacing represents the sensitivity of the instrument.  You'd want to make sure that every time the temperature went up 1 degree, the pointer moved exactly the distance between 2 temperature markers.</t>
+  </si>
+  <si>
+    <t>You'd want to make sure that when the measurement standard was a certain temperature that your pointer pointed to that temperature (for instance, if the thermometer were placed in ice water, the point would point to 32 degrees F).</t>
+  </si>
+  <si>
+    <t>If, as in the previous question, you replaced the high expansion metal with an even higher expansion metal, what would happen to the range of a simple bimetallic thermometer such as that pictured?</t>
+  </si>
+  <si>
+    <t>It would increase</t>
+  </si>
+  <si>
+    <t>It would stay the same</t>
+  </si>
+  <si>
+    <t>It would decrease</t>
+  </si>
+  <si>
+    <t>In the last question, we saw that the sensitivity would increase in this situation.   But the pointer can only move at the most 360 degrees without creating a situation where the reading is uncertain.   So since similar change in the input would result in a larger output, the pointer would turn a full 360 degrees with a smaller input: that is, it's range would be smaller.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -510,9 +404,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -829,75 +720,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -905,11 +802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,87 +818,41 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>127</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1015,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1073,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1149,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1236,7 +1087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1298,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1400,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1476,11 +1327,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,47 +1342,59 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,11 +1402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,44 +1417,61 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1599,75 +1479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,139 +1494,67 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,29 +1565,27 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>94</v>
+      <c r="A3" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1852,7 +1594,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1860,40 +1602,22 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1903,70 +1627,149 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1783,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1992,56 +1795,56 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/1_a_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/1_a_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BD9313-8CC5-44DF-A1C9-82FE8E1D3157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201425B8-C0F8-41FB-8B6B-AB629CE870A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="480" windowWidth="16020" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="480" windowWidth="16020" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t xml:space="preserve">Both metals in the spiral "sense" the temperature change, and respond by changing shape.   </t>
   </si>
   <si>
-    <t>A bimetallic thermometer has a pointer that turns to point at the correct temperature.  The pointer is turned because the two metals fused together in a spiral in the thermometer have different rates of expansion, as shown in the image.  What part of the thermometer would best be described as the "sensor" for this thermometer?</t>
-  </si>
-  <si>
     <t>The length of the pointer</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>In the last question, we saw that the sensitivity would increase in this situation.   But the pointer can only move at the most 360 degrees without creating a situation where the reading is uncertain.   So since similar change in the input would result in a larger output, the pointer would turn a full 360 degrees with a smaller input: that is, it's range would be smaller.</t>
+  </si>
+  <si>
+    <t>Look at the image of a bimetallic thermometer above.  This type of thermometer has a pointer that rotates so that the pointer points at the correct temperature.  The pointer rotates because the two metals fused together in a spiral in the thermometer have different rates of expansion: when the temperature changes, one metal expands more than the other, causing the fused spiral to tighten or loosen.  What part of the thermometer would best be described as the "sensor" for this thermometer?</t>
   </si>
 </sst>
 </file>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,9 +736,9 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1344,7 +1344,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1364,18 +1364,18 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1419,14 +1419,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1444,29 +1444,29 @@
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -1496,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1567,25 +1567,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1723,7 +1723,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/1_a_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/1_a_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201425B8-C0F8-41FB-8B6B-AB629CE870A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F861C-DA84-4074-B437-289A07B1CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="480" windowWidth="16020" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="480" windowWidth="16020" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,6 @@
     <t>The length of the metal band</t>
   </si>
   <si>
-    <t>All of the other answers are steps along the way has the thermometer changes a temperature to a readable value.  But ultimately what we are reading is the angle of the pointer: which direction is it pointing?</t>
-  </si>
-  <si>
     <t xml:space="preserve">If the low expansion metal was kept the same, but the high expansion metal was replaced by a metal with an even larger coefficient of thermal expansion, what would happen to the sensitivity? </t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>Look at the image of a bimetallic thermometer above.  This type of thermometer has a pointer that rotates so that the pointer points at the correct temperature.  The pointer rotates because the two metals fused together in a spiral in the thermometer have different rates of expansion: when the temperature changes, one metal expands more than the other, causing the fused spiral to tighten or loosen.  What part of the thermometer would best be described as the "sensor" for this thermometer?</t>
+  </si>
+  <si>
+    <t>All of the other answers are steps along the way as the thermometer changes a temperature to a readable value (the metal changes temperature, it lengthens (or shortens) to a new length, etc...).  But ultimately what we are reading is the angle of the pointer: which direction is it pointing?</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,14 +1419,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1444,29 +1444,29 @@
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -1496,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,25 +1567,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/1_a_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/1_a_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F861C-DA84-4074-B437-289A07B1CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8781D3-1CF8-44E3-B94D-996F4101359A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="480" windowWidth="16020" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="480" windowWidth="16020" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -318,9 +318,6 @@
     <t>This spacing represents the sensitivity of the instrument.  You'd want to make sure that every time the temperature went up 1 degree, the pointer moved exactly the distance between 2 temperature markers.</t>
   </si>
   <si>
-    <t>You'd want to make sure that when the measurement standard was a certain temperature that your pointer pointed to that temperature (for instance, if the thermometer were placed in ice water, the point would point to 32 degrees F).</t>
-  </si>
-  <si>
     <t>If, as in the previous question, you replaced the high expansion metal with an even higher expansion metal, what would happen to the range of a simple bimetallic thermometer such as that pictured?</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>All of the other answers are steps along the way as the thermometer changes a temperature to a readable value (the metal changes temperature, it lengthens (or shortens) to a new length, etc...).  But ultimately what we are reading is the angle of the pointer: which direction is it pointing?</t>
+  </si>
+  <si>
+    <t>You'd want to make sure that when the measurement standard was a certain temperature that your pointer pointed to that temperature (for instance, if the thermometer were placed in ice water, the pointer would point to 32 degrees F).</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1330,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1567,25 +1567,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
